--- a/Tips Troubleshoot.xlsx
+++ b/Tips Troubleshoot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E1F71-BACD-4834-81B1-7A1643AF6E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F5F31-A873-4A60-8666-06A183F5614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>If internet not working on windows</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>/opt/autonet.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctrl + backspace </t>
+  </si>
+  <si>
+    <t>used to delete a word, use whenever you need to del more than 2 character at a time</t>
   </si>
 </sst>
 </file>
@@ -386,17 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.26953125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="82.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -429,6 +436,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Tips Troubleshoot.xlsx
+++ b/Tips Troubleshoot.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F5F31-A873-4A60-8666-06A183F5614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19410" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>If internet not working on windows</t>
   </si>
@@ -44,22 +24,37 @@
 step 3: netsh int ipv4 reset reset.log</t>
   </si>
   <si>
-    <t>Control+Shift+R or Shift + F5 </t>
-  </si>
-  <si>
     <t>F5 or Control + R </t>
   </si>
   <si>
     <t>Reload the current page, from cached files (not fresh copy)</t>
   </si>
   <si>
-    <t>Reload your current page, ignoring cached content (fresh copy from web)</t>
+    <t>Control+Shift+R or Shift + F5 </t>
   </si>
   <si>
-    <t>When you first time login with VM</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reload your current page, ignoring cached content (fresh copy from web) |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hard refresh</t>
+    </r>
   </si>
   <si>
-    <t>/opt/autonet.sh</t>
+    <t>The browser will ignore the cache and download all the resources from the server again. This can be useful if you suspect that the website is not displaying correctly due to outdated or corrupted files in the browser cache.</t>
   </si>
   <si>
     <t xml:space="preserve">ctrl + backspace </t>
@@ -71,30 +66,379 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -102,28 +446,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -172,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,73 +1013,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="82.0866666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8133333333333" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.72666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="47.25" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="5" ht="47.25" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tips Troubleshoot.xlsx
+++ b/Tips Troubleshoot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>If internet not working on windows</t>
   </si>
@@ -24,37 +24,22 @@
 step 3: netsh int ipv4 reset reset.log</t>
   </si>
   <si>
-    <t>F5 or Control + R </t>
+    <t xml:space="preserve">F5/ ctr + r </t>
   </si>
   <si>
     <t>Reload the current page, from cached files (not fresh copy)</t>
   </si>
   <si>
-    <t>Control+Shift+R or Shift + F5 </t>
+    <t>shift + F5/ ctr+shift+r </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reload your current page, ignoring cached content (fresh copy from web) |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hard refresh</t>
-    </r>
+    <t xml:space="preserve">Reload your current page, ignoring cached content (fresh copy from web) </t>
   </si>
   <si>
-    <t>The browser will ignore the cache and download all the resources from the server again. This can be useful if you suspect that the website is not displaying correctly due to outdated or corrupted files in the browser cache.</t>
+    <t>Hard Refresh</t>
+  </si>
+  <si>
+    <t>The browser will ignore the cache and download all the resources from the server again. This can be useful if you suspect that the website is not displaying correctly due to outdated/obsolete or corrupted files in the browser cache.</t>
   </si>
   <si>
     <t xml:space="preserve">ctrl + backspace </t>
@@ -68,12 +53,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +67,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,6 +102,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -122,9 +138,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,109 +207,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,15 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,6 +436,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +475,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,160 +522,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,21 +997,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6" style="1" customWidth="1"/>
     <col min="2" max="2" width="82.0866666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8133333333333" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.72666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" spans="1:2">
+    <row r="1" ht="45" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,46 +1024,48 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="47.25" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    <row r="6" ht="45" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
@@ -1094,6 +1074,14 @@
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
